--- a/src/test/resources/output.xlsx
+++ b/src/test/resources/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="12">
   <si>
     <t>data11</t>
   </si>
